--- a/server/buku_tamu.xlsx
+++ b/server/buku_tamu.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mobile Development Project\react-native\Guestify-FindIT\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438CF610-54AE-4011-AD96-5C255B7C07DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E9F131-C720-45DA-8CEE-B170ADE12ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6015" yWindow="3090" windowWidth="19185" windowHeight="10065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>no</t>
   </si>
@@ -43,6 +43,18 @@
   </si>
   <si>
     <t>18221063@std.stei.itb.ac.id</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Felisa</t>
+  </si>
+  <si>
+    <t>18221054@std.stei.itb.ac.id</t>
+  </si>
+  <si>
+    <t>18221137@std.stei.itb.ac.id</t>
   </si>
 </sst>
 </file>
@@ -131,14 +143,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -426,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -441,11 +453,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -465,8 +477,30 @@
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -475,6 +509,8 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{2D686FF0-BB29-4D9A-9AC2-E23049F50877}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{1F285038-42D9-4B39-8906-5B97E2AFD4ED}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{C3CDFC3E-C25B-42B7-91B3-2A6FD7AD8201}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
